--- a/biology/Médecine/Secrétariat_d'État_à_la_Santé_(Espagne)/Secrétariat_d'État_à_la_Santé_(Espagne).xlsx
+++ b/biology/Médecine/Secrétariat_d'État_à_la_Santé_(Espagne)/Secrétariat_d'État_à_la_Santé_(Espagne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Secr%C3%A9tariat_d%27%C3%89tat_%C3%A0_la_Sant%C3%A9_(Espagne)</t>
+          <t>Secrétariat_d'État_à_la_Santé_(Espagne)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le secrétariat d'État à la Santé d'Espagne (en espagnol : Secretaría de Estado de Sanidad) est le secrétariat d'État chargé de la politique de santé.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Secr%C3%A9tariat_d%27%C3%89tat_%C3%A0_la_Sant%C3%A9_(Espagne)</t>
+          <t>Secrétariat_d'État_à_la_Santé_(Espagne)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fonctions
-Le secrétariat d'État à la Santé est l'organe supérieur du ministère de la Santé auquel il revient de proposer et mettre en œuvre la politique gouvernementale en matière de santé publique, de coordination interterritoriale, de haute inspection, de planification sanitaire, d'élaboration et actualisation du fichier commun des services du Système national de Santé, de règlementation des professions sanitaires, de développement et exécution de la politique pharmaceutique. Il exerce les fonctions relatives au financement public et à la fixation des prix des médicaments et produits sanitaires et implémente la politique du ministère en matière de coordination de la politique des transplantations.
-Il est également chargé du développement de stratégies de santé et d'actions permettant d'assurer la sécurité des aliments destinés à la consommation humaine, du point de vue nutritif et qualitatif, et de la sécurité de la chaîne alimentaire, sans préjudice des compétences réservées au ministère de la Consommation et au ministère de l'Agriculture, de la Pêche et de l'Alimentation. Le secrétariat d'État exerce aussi les compétences du ministère relatives à la coordination et à l'exécution du Plan national sur les drogues, notamment en matière de dépendance aux drogues et d'autres addictions[1].
-Organisation
-Le secrétariat d'État est organisé de la manière suivante[2],[1],[3] :
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le secrétariat d'État à la Santé est l'organe supérieur du ministère de la Santé auquel il revient de proposer et mettre en œuvre la politique gouvernementale en matière de santé publique, de coordination interterritoriale, de haute inspection, de planification sanitaire, d'élaboration et actualisation du fichier commun des services du Système national de Santé, de règlementation des professions sanitaires, de développement et exécution de la politique pharmaceutique. Il exerce les fonctions relatives au financement public et à la fixation des prix des médicaments et produits sanitaires et implémente la politique du ministère en matière de coordination de la politique des transplantations.
+Il est également chargé du développement de stratégies de santé et d'actions permettant d'assurer la sécurité des aliments destinés à la consommation humaine, du point de vue nutritif et qualitatif, et de la sécurité de la chaîne alimentaire, sans préjudice des compétences réservées au ministère de la Consommation et au ministère de l'Agriculture, de la Pêche et de l'Alimentation. Le secrétariat d'État exerce aussi les compétences du ministère relatives à la coordination et à l'exécution du Plan national sur les drogues, notamment en matière de dépendance aux drogues et d'autres addictions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Secrétariat_d'État_à_la_Santé_(Espagne)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Secr%C3%A9tariat_d%27%C3%89tat_%C3%A0_la_Sant%C3%A9_(Espagne)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Missions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le secrétariat d'État est organisé de la manière suivante :
 Secrétariat d'État à la Santé (Secretaría de Estado de Sanidad) ;
 Secrétariat général de la Santé numérique, de l'Information et de l'Innovation du Système national de santé (Secretaría General de Salud Digital, Información e Innovación del Sistema Nacional de Salud) ;
 Direction générale de la Santé numérique et des Systèmes d'information pour le Système national de santé ;
@@ -547,31 +599,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Secr%C3%A9tariat_d%27%C3%89tat_%C3%A0_la_Sant%C3%A9_(Espagne)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Secrétariat_d'État_à_la_Santé_(Espagne)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Secr%C3%A9tariat_d%27%C3%89tat_%C3%A0_la_Sant%C3%A9_(Espagne)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Titulaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
